--- a/biology/Histoire de la zoologie et de la botanique/Carl_Heinrich_Hopffer/Carl_Heinrich_Hopffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Heinrich_Hopffer/Carl_Heinrich_Hopffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Heinrich Hopffer est un entomologiste allemand spécialiste des lépidoptères, né en 1810 et mort en 1876.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Heinrich Hopffer était conservateur du musée d'histoire naturelle de Berlin.
 Il était membre de la Société entomologiste de Stettin.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Neue Schmetterlinge der Insekten-Sammlung des Konigl. Zoologischen Musei der Universitat zu Berlin with Johann Christoph Friedrich Klug (1836)
 Naturwissenschaftliche Reise nach Mossambique, auf befehl Seiner Majestat des konigs Friedrich Wilhelm IV in den jahfren 1842 bis 1848 ausfefuhrt von Wilhelm C.H. Peters ( Zoologie. V. Insecten und myriopoden)Berlin: in German (1862)
@@ -580,7 +596,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est l'inventeur d'espèces, dont :
 Borbo fatuellus (en) (Hopffer, 1855).
